--- a/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -70,6 +70,123 @@
   </si>
   <si>
     <t xml:space="preserve"> Üê, ñåáÿóà! Ëôäà íú òåãïäîÿ\nðïêäæí?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, gang! What kind of items\nshould we buy today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want a [CS:I]Blue Gummi[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want a [CS:I]Green Gummi[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But wait...![K] Hold on a second!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s think about it for a second!\nWe don\'t have any money, do we?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! You\'re so right!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s so silly of us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha ha ha! Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, ребята! Каких предметов\nнам сегодня купить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу [CS:I]Синее Желе[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А я хочу [CS:I]Зеленое Желе[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но погодите!..[K] Секундочку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы совсем забыли! У нас ведь\nсовсем нет денег, так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох! Точно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы такие глупые!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха! Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, ñåáÿóà! Ëàëéö ðñåäíåóïâ\nîàí òåãïäîÿ ëôðéóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô [CS:I]Òéîåå Çåìå[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À ÿ öïœô [CS:I]Èåìåîïå Çåìå[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ðïãïäéóå!..[K] Òåëôîäïœëô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òïâòåí èàáúìé! Ô îàò âåäû\nòïâòåí îåó äåîåã, óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö! Óïœîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óàëéå ãìôðúå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà! Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t really get it, but it\nsounds great, I guess! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0716.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я ни слова не понимаю, но,\nнаверное, это здорово! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îé òìïâà îå ðïîéíàý, îï,\nîàâåñîïå, üóï èäïñïâï! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0802.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone in the guild is going\nout on an expedition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ooh, that\'s so cool! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все в гильдии отправляются в\nэкспедицию?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оой, это так здорово! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå â ãéìûäéé ïóðñàâìÿýóòÿ â\nüëòðåäéøéý?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïê, üóï óàë èäïñïâï! ♪</t>
   </si>
 </sst>
 </file>
@@ -100,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -143,11 +260,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -168,6 +305,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,20 +667,226 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>423</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>333</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>336</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>341</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>346</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>349</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>352</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>357</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>362</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>376</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>381</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
+        <v>386</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10">
+        <v>308</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4">
+        <v>286</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>289</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -187,6 +187,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïïê, üóï óàë èäïñïâï! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hear that when you win big on\na [CS:I]Prize Ticket[CR], there\'s a celebratory dance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что при крупном\nвыигрыше за [CS:I]Призовой Билет[CR], для тебя\nначинается праздничный танец!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï ðñé ëñôðîïí\nâúéãñúšå èà [CS:I]Ðñéèïâïê Áéìåó[CR], äìÿ óåáÿ\nîàœéîàåóòÿ ðñàèäîéœîúê óàîåø!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1410.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:K]Chansey[CR] Day Care will look after\nany Egg for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В Дневном Уходе [CS:K]Ченси[CR] присмотрит\nза любым твоим Яйцом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â Äîåâîïí Ôöïäå [CS:K]Œåîòé[CR] ðñéòíïóñéó\nèà ìýáúí óâïéí Ÿêøïí.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1503.ssb</t>
   </si>
 </sst>
 </file>
@@ -599,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,17 +906,66 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
         <v>289</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4">
+        <v>267</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4">
+        <v>248</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -217,6 +217,60 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um1503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re the team that went to the\n[CS:P]Hidden Land[CR] and stopped the planet\'s paralysis?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы та команда, которая\nотправилась в [CS:P]Сокрытые Земли[CR] и остановила\nпланетарный паралич?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú óà ëïíàîäà, ëïóïñàÿ\nïóðñàâéìàòû â [CS:P]Òïëñúóúå Èåíìé[CR] é ïòóàîïâéìà\nðìàîåóàñîúê ðàñàìéœ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go! Let\'s go! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд! Вперёд! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä! Âðåñæä! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Shaymin[CR] all look so much alike.\nIt\'s almost impossible to tell them apart…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3120.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Шеймины[CR] очень похожи друг на\nдруга. Их почти невозможно различить...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Šåêíéîú[CR] ïœåîû ðïöïçé äñôã îà\näñôãà. Éö ðïœóé îåâïèíïçîï ñàèìéœéóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder where the Secret\nRoom that [CS:N]Shaymin[CR] was talking\nabout is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, где находится Секретная\nКомната, о которой говорил [CS:N]Шеймин[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, ãäå îàöïäéóòÿ Òåëñåóîàÿ\nËïíîàóà, ï ëïóïñïê ãïâïñéì [CS:N]Šåêíéî[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mountains are so beautiful! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Горы так красивы! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïñú óàë ëñàòéâú! ♪</t>
   </si>
 </sst>
 </file>
@@ -314,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -347,6 +401,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,8 +1024,106 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8" t="s">
         <v>65</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="10">
+        <v>223</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="10">
+        <v>204</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="4">
+        <v>175</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12">
+        <v>182</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>156</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>137</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -271,6 +271,81 @@
   </si>
   <si>
     <t xml:space="preserve"> Ãïñú óàë ëñàòéâú! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard from [CS:N]Shaymin[CR] earlier,\nbut this isn\'t the mountain\'s summit…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We always thought that this was\nthe top of the mountain. Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это не горная вершина, хотя\n[CS:N]Шеймин[CR] нам об этом говорил...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам всегда казалось, что мы уже\nна вершине горы. Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îå ãïñîàÿ âåñšéîà, öïóÿ\n[CS:N]Šåêíéî[CR] îàí ïá üóïí ãïâïñéì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí âòåãäà ëàèàìïòû, œóï íú ôçå\nîà âåñšéîå ãïñú. Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0208.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We ended up coming back home\nbefore climbing the whole [CS:P]Sky Peak[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В итоге мы вернулись сюда, не\nзабираясь на [CS:P]Небесный Пик[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â éóïãå íú âåñîôìéòû òýäà, îå\nèàáéñàÿòû îà [CS:P]Îåáåòîúê Ðéë[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0406.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I went to meet Team [CS:X]Charm[CR] and\ngot their autographs! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я пошёл повидать Команду [CS:X]Шарм[CR]\nи взял у них автографы! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïšæì ðïâéäàóû Ëïíàîäô [CS:X]Šàñí[CR]\né âèÿì ô îéö àâóïãñàõú! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do you know about the [CS:I]Wonder\nGummi[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы знаете о [CS:I]Чудо-Желе[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú èîàåóå ï [CS:I]Œôäï-Çåìå[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2002.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Be strong for us![K] And go bring\npeace to the world!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Будьте сильны ради нас![K]\nИ верните покой в наш мир!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áôäûóå òéìûîú ñàäé îàò![K]\nÉ âåñîéóå ðïëïê â îàš íéñ!</t>
   </si>
 </sst>
 </file>
@@ -301,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -364,11 +439,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -407,6 +491,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,17 +1203,135 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
+      <c r="B28" s="14">
         <v>137</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="15" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
+        <v>118</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="10">
+        <v>77</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="4">
+        <v>58</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="4">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Тогепи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -346,6 +346,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Áôäûóå òéìûîú ñàäé îàò![K]\nÉ âåñîéóå ðïëïê â îàš íéñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m having so much fun! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне так весело! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå óàë âåòåìï! ♪</t>
   </si>
 </sst>
 </file>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,20 +1330,37 @@
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="10">
         <v>39</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="11" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="4">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
